--- a/biology/Zoologie/Cephalotes_haemorrhoidalis/Cephalotes_haemorrhoidalis.xlsx
+++ b/biology/Zoologie/Cephalotes_haemorrhoidalis/Cephalotes_haemorrhoidalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes haemorrhoidalis, est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes haemorrhoidalis, est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est trouvée en Amérique du Sud[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est trouvée en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste français Pierre-André Latreille, en 1802.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
